--- a/biology/Zoologie/Alpiscorpius_mingrelicus/Alpiscorpius_mingrelicus.xlsx
+++ b/biology/Zoologie/Alpiscorpius_mingrelicus/Alpiscorpius_mingrelicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpiscorpius mingrelicus est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Nord de la Turquie, dans l'Ouest de la Géorgie et en Russie dans le Sud-Ouest du kraï de Krasnodar[1],[2].
-Pour Tropea, Aydın et Fet en 2015[2] et Kovařík, Štundlová, Fet et  Šťáhlavský en 2019[1], les populations des Balkans n'appartiennent pas à cette espèce. Ils ne lui reconnaissent pas de sous-espèce.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Nord de la Turquie, dans l'Ouest de la Géorgie et en Russie dans le Sud-Ouest du kraï de Krasnodar,.
+Pour Tropea, Aydın et Fet en 2015 et Kovařík, Štundlová, Fet et  Šťáhlavský en 2019, les populations des Balkans n'appartiennent pas à cette espèce. Ils ne lui reconnaissent pas de sous-espèce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit Tropea, Aydın et Fet en 2015 mesure 31,17 mm et la femelle 28,91 mm. Alpiscorpius mingrelicus mesure de 27 à 42 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit Tropea, Aydın et Fet en 2015 mesure 31,17 mm et la femelle 28,91 mm. Alpiscorpius mingrelicus mesure de 27 à 42 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce a été décrite sous le protonyme Scorpio mingrelicus par Kessler en 1874.
-Elle est placée dans le genre Euscorpius par Birula en 1896[3] puis dans le genre Alpiscorpius par Kovařík, Štundlová, Fet et Šťáhlavský en 2019[1].
-En 2000, dix sous-espèces étaient reconnuent à Euscorpius mingrelicus[4] :
+Elle est placée dans le genre Euscorpius par Birula en 1896 puis dans le genre Alpiscorpius par Kovařík, Štundlová, Fet et Šťáhlavský en 2019.
+En 2000, dix sous-espèces étaient reconnuent à Euscorpius mingrelicus :
 Euscorpius mingrelicus mingrelicus correspond à Alpiscorpius mingrelicus tel que définie en 2019 ;
 Euscorpius mingrelicus gamma, Euscorpius mingrelicus ciliciensis, Euscorpius mingrelicus phrygius, Euscorpius mingrelicus uludagensis, Euscorpius mingrelicus caporiaccoi et Euscorpius mingrelicus dinaricus ont été élevées au rang d'espèce ;
 Euscorpius mingrelicus legrandi a été placée en synonymie avec Alpiscorpius phrygius et Euscorpius mingrelicus ollivieri a été placée en synonymie avec Alpiscorpius mingrelicus ;
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kessler, 1874 : « O russkikh skorpionakh. » Trudy Russkago Entomologicheskago Obshchestva, vol. 8, no 1, p. 1-39.</t>
         </is>
